--- a/meta/en/3-2-1.xlsx
+++ b/meta/en/3-2-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -113,12 +112,6 @@
     <t xml:space="preserve">Jmaatkulova@stat.kg </t>
   </si>
   <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Under-five mortality is the probability of a child born in a specific year or period dying before reaching the age of 5 years.</t>
   </si>
   <si>
@@ -156,6 +149,12 @@
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men», «Standard of living of the population of the Kyrgyz Republic», «Health of population and health care in the Kyrgyz Republic», available on the official website of NSC KR: http://www.stat.kg/ru/publications/
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>0 (312) 32 55 46</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -564,7 +563,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -713,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
